--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2320.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2320.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.75332235557197</v>
+        <v>1.458714962005615</v>
       </c>
       <c r="B1">
-        <v>1.845101025691152</v>
+        <v>1.788643956184387</v>
       </c>
       <c r="C1">
-        <v>1.17032106298561</v>
+        <v>1.701697468757629</v>
       </c>
       <c r="D1">
-        <v>1.003850399378337</v>
+        <v>1.567126393318176</v>
       </c>
       <c r="E1">
-        <v>0.9642151154199391</v>
+        <v>1.101616501808167</v>
       </c>
     </row>
   </sheetData>
